--- a/matlab/Data_Conversion/Conv.xlsx
+++ b/matlab/Data_Conversion/Conv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\Lake-Erie-2019\matlab\Data Conversion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\Lake-Erie-2019\matlab\Data_Conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>ACIDITY</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>WQ_OGM_POP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_PAR</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -799,7 +802,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>1</v>

--- a/matlab/Data_Conversion/Conv.xlsx
+++ b/matlab/Data_Conversion/Conv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>ACIDITY</t>
   </si>
@@ -170,9 +170,6 @@
     <t>WQ_DIAG_PHY_TCHLA</t>
   </si>
   <si>
-    <t>WQ_OGM_DIC</t>
-  </si>
-  <si>
     <t>WQ_OXY_OXY</t>
   </si>
   <si>
@@ -210,13 +207,43 @@
   </si>
   <si>
     <t>WQ_DIAG_TOT_PAR</t>
+  </si>
+  <si>
+    <t>WQ_GEO_CL</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAG_TMALG</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAG_MAG_IP</t>
+  </si>
+  <si>
+    <t>WQ_CAR_DIC</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_TDP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_TCHLA_PH</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_SECCHI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_TDN</t>
+  </si>
+  <si>
+    <t>WQ_GEO_ACIDITY</t>
+  </si>
+  <si>
+    <t>WQ_SIL_RSI_TOT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +256,20 @@
       <color theme="1"/>
       <name val="Candara"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -272,11 +313,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +603,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,8 +627,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -620,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
         <f>1000/12</f>
@@ -642,8 +685,8 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -675,8 +718,8 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
+      <c r="B10" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -708,8 +751,8 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>43</v>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -719,8 +762,8 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -731,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1">
         <f>1000/12</f>
@@ -755,7 +798,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1">
         <f>1000/14</f>
@@ -767,7 +810,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <f>1000/14</f>
@@ -790,7 +833,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1">
         <f>1000/32</f>
@@ -802,7 +845,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -824,7 +867,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
         <f>1000/31</f>
@@ -836,7 +879,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1">
         <f>1000/31</f>
@@ -847,8 +890,8 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>43</v>
+      <c r="B25" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="1">
         <f>1000/31</f>
@@ -860,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1">
         <f>1000/31</f>
@@ -882,8 +925,8 @@
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>43</v>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -893,8 +936,8 @@
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>43</v>
+      <c r="B29" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -905,7 +948,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f>1000/28.1</f>
@@ -917,7 +960,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1">
         <f>1000/31</f>
@@ -929,7 +972,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -940,7 +983,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -951,7 +994,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1">
         <f>1000/14</f>
@@ -963,7 +1006,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1">
         <f>1000/14</f>
@@ -974,11 +1017,12 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1">
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -986,7 +1030,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="1">
         <f>1000/31</f>
@@ -998,7 +1042,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1">
         <f>1000/31</f>
@@ -1009,8 +1053,8 @@
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>50</v>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C39" s="1">
         <f>1000/31</f>
@@ -1030,5 +1074,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/matlab/Data_Conversion/Conv.xlsx
+++ b/matlab/Data_Conversion/Conv.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\Lake-Erie-2019\matlab\Data_Conversion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Lake-Erie\matlab\Data_Conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02997918-9E85-4F7B-AA9C-06D016626E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="31920" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>ACIDITY</t>
   </si>
@@ -242,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,20 +608,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -623,7 +632,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -634,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -646,7 +655,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -658,7 +667,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -670,7 +679,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -681,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -692,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -703,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -714,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -725,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -736,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -747,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -758,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -769,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -781,7 +790,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -793,7 +802,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -805,7 +814,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -817,7 +826,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -828,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -840,7 +849,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -851,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -862,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -874,7 +883,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -886,7 +895,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -898,7 +907,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -910,7 +919,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -921,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -932,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -943,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -955,7 +964,7 @@
         <v>35.587188612099645</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -967,7 +976,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -978,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -989,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1010,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1025,7 +1034,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1049,7 +1058,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1069,6 +1078,17 @@
         <v>42</v>
       </c>
       <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
         <v>1</v>
       </c>
     </row>
